--- a/biorefineries/cane/results/oilcane_spearman_7_WT.xlsx
+++ b/biorefineries/cane/results/oilcane_spearman_7_WT.xlsx
@@ -740,11 +740,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.03102796933711877</v>
+        <v>-0.0309690600867624</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.03358270415930816</v>
+        <v>0.03356977247879089</v>
       </c>
       <c r="F4" t="n">
         <v>-0.03292929626117184</v>
@@ -757,48 +757,48 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>-0.005401579224063168</v>
+        <v>-0.005400766872030674</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0007960351998414078</v>
+        <v>-0.0007960421118416843</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>-0.02171168314046732</v>
+        <v>-0.02171190806847632</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005946300249310286</v>
+        <v>0.006559421404156275</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01559581627183265</v>
+        <v>0.01688138793925551</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01559581627183265</v>
+        <v>0.01688138793925551</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01559581627183265</v>
+        <v>0.01688138793925551</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01559581627183265</v>
+        <v>0.01688138793925551</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01559581627183265</v>
+        <v>0.01688138793925551</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>0.02141128175245127</v>
+        <v>0.02155053196602127</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01536301520652061</v>
+        <v>0.01651873650074946</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01536301520652061</v>
+        <v>0.01651873650074946</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01536301520652061</v>
+        <v>0.01651873650074946</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01536301520652061</v>
+        <v>0.01651873650074946</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
@@ -806,10 +806,10 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
-        <v>-0.03885092219403688</v>
+        <v>-0.03885006933000277</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.03894511576580462</v>
+        <v>-0.03887259227490369</v>
       </c>
     </row>
     <row r="5">
@@ -820,11 +820,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1100159779046391</v>
+        <v>0.109678874179155</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.3290424723936988</v>
+        <v>-0.3290172734486909</v>
       </c>
       <c r="F5" t="n">
         <v>-0.004287880683515227</v>
@@ -837,48 +837,48 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>-0.3109661577186462</v>
+        <v>-0.3109704490148179</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07194385670175425</v>
+        <v>0.07194358492574339</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>-0.02775219087008763</v>
+        <v>-0.02775061896602475</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1225760034452713</v>
+        <v>0.1247584044741855</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01730451371618055</v>
+        <v>0.05720102580804103</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01730451371618055</v>
+        <v>0.05720102580804103</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01730451371618055</v>
+        <v>0.05720102580804103</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01730451371618055</v>
+        <v>0.05720102580804103</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01730451371618055</v>
+        <v>0.05720102580804103</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.6770930939637236</v>
+        <v>0.6771841734873669</v>
       </c>
       <c r="V5" t="n">
-        <v>0.00553903874956155</v>
+        <v>0.04442477400099095</v>
       </c>
       <c r="W5" t="n">
-        <v>0.00553903874956155</v>
+        <v>0.04442477400099095</v>
       </c>
       <c r="X5" t="n">
-        <v>0.00553903874956155</v>
+        <v>0.04442477400099095</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.00553903874956155</v>
+        <v>0.04442477400099095</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -886,10 +886,10 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>0.1088148788485951</v>
+        <v>0.1088131180165247</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.111805174424207</v>
+        <v>0.1118595526663821</v>
       </c>
     </row>
     <row r="6">
@@ -900,11 +900,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0005614148384565935</v>
+        <v>0.0005523561820942472</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.006581574695262988</v>
+        <v>0.006581145575245822</v>
       </c>
       <c r="F6" t="n">
         <v>-0.01742692850507714</v>
@@ -917,48 +917,48 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>0.01119029343961174</v>
+        <v>0.01119051635162065</v>
       </c>
       <c r="K6" t="n">
-        <v>-9.623107584924303e-05</v>
+        <v>-9.997257999890319e-05</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>-0.01273224137328965</v>
+        <v>-0.01273308310132332</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01748916289389048</v>
+        <v>-0.01657207204608812</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003082151163286046</v>
+        <v>0.001038187337527493</v>
       </c>
       <c r="P6" t="n">
-        <v>0.003082151163286046</v>
+        <v>0.001038187337527493</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.003082151163286046</v>
+        <v>0.001038187337527493</v>
       </c>
       <c r="R6" t="n">
-        <v>0.003082151163286046</v>
+        <v>0.001038187337527493</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003082151163286046</v>
+        <v>0.001038187337527493</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>-0.01726181349047254</v>
+        <v>-0.01758734105549364</v>
       </c>
       <c r="V6" t="n">
-        <v>0.003396177063847082</v>
+        <v>0.001462976122519045</v>
       </c>
       <c r="W6" t="n">
-        <v>0.003396177063847082</v>
+        <v>0.001462976122519045</v>
       </c>
       <c r="X6" t="n">
-        <v>0.003396177063847082</v>
+        <v>0.001462976122519045</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.003396177063847082</v>
+        <v>0.001462976122519045</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -966,10 +966,10 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>0.002298013339920533</v>
+        <v>0.00229688850787554</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.001266323954652958</v>
+        <v>0.001599977343999094</v>
       </c>
     </row>
     <row r="7">
@@ -980,11 +980,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5634424936096997</v>
+        <v>0.5634100681684027</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.4140593683703747</v>
+        <v>-0.4140691950267678</v>
       </c>
       <c r="F7" t="n">
         <v>0.007730781429231256</v>
@@ -997,48 +997,48 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>-0.027198125023925</v>
+        <v>-0.02721818681672747</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01634164433366577</v>
+        <v>-0.01635265159810606</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>-0.4387643259665729</v>
+        <v>-0.4387631862545274</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01656196483676967</v>
+        <v>0.01347042002437983</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02559945279997811</v>
+        <v>0.02764141944165677</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02559945279997811</v>
+        <v>0.02764141944165677</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02559945279997811</v>
+        <v>0.02764141944165677</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02559945279997811</v>
+        <v>0.02764141944165677</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02559945279997811</v>
+        <v>0.02764141944165677</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>0.02064924120996964</v>
+        <v>0.02081706947268278</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02527435147497405</v>
+        <v>0.02721429219257169</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02527435147497405</v>
+        <v>0.02721429219257169</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02527435147497405</v>
+        <v>0.02721429219257169</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02527435147497405</v>
+        <v>0.02721429219257169</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>0.179831349977254</v>
+        <v>0.179828476505139</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1802917785716711</v>
+        <v>0.1795380173575206</v>
       </c>
     </row>
     <row r="8">
@@ -1060,11 +1060,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.004959412902376515</v>
+        <v>0.004992947047717881</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.01098248443929938</v>
+        <v>0.0109633776545351</v>
       </c>
       <c r="F8" t="n">
         <v>-0.002753418638136745</v>
@@ -1077,48 +1077,48 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>0.01067575098703004</v>
+        <v>0.01067881463515259</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.001124734028989361</v>
+        <v>-0.00112232298889292</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-0.007025979737039188</v>
+        <v>-0.007025820377032814</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.003482584924713201</v>
+        <v>0.0002396271893869644</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01868414849136594</v>
+        <v>0.01745810709832428</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01868414849136594</v>
+        <v>0.01745810709832428</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01868414849136594</v>
+        <v>0.01745810709832428</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01868414849136594</v>
+        <v>0.01745810709832428</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01868414849136594</v>
+        <v>0.01745810709832428</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>-0.005338844949553797</v>
+        <v>-0.005494511739780468</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01880639067225563</v>
+        <v>0.01752711929308477</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01880639067225563</v>
+        <v>0.01752711929308477</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01880639067225563</v>
+        <v>0.01752711929308477</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01880639067225563</v>
+        <v>0.01752711929308477</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -1126,10 +1126,10 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>-0.01620380704815228</v>
+        <v>-0.01620370653614826</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.01598893292755732</v>
+        <v>-0.01472158446086338</v>
       </c>
     </row>
     <row r="9">
@@ -1144,11 +1144,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2182334856893394</v>
+        <v>0.2182069578162783</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>-0.1351447670697907</v>
+        <v>-0.135099625083985</v>
       </c>
       <c r="F9" t="n">
         <v>0.708268152682726</v>
@@ -1161,48 +1161,48 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>0.01468734673149387</v>
+        <v>0.01471026481241059</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01072636487705459</v>
+        <v>0.01074090042963602</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>0.5893763946790557</v>
+        <v>0.5893753623910145</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0009033233859394764</v>
+        <v>0.00386338245623298</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005377641527105661</v>
+        <v>0.005068971370758854</v>
       </c>
       <c r="P9" t="n">
-        <v>0.005377641527105661</v>
+        <v>0.005068971370758854</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.005377641527105661</v>
+        <v>0.005068971370758854</v>
       </c>
       <c r="R9" t="n">
-        <v>0.005377641527105661</v>
+        <v>0.005068971370758854</v>
       </c>
       <c r="S9" t="n">
-        <v>0.005377641527105661</v>
+        <v>0.005068971370758854</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>-0.0100878449475138</v>
+        <v>-0.01007835333113413</v>
       </c>
       <c r="V9" t="n">
-        <v>0.00547704674708187</v>
+        <v>0.005228552945142117</v>
       </c>
       <c r="W9" t="n">
-        <v>0.00547704674708187</v>
+        <v>0.005228552945142117</v>
       </c>
       <c r="X9" t="n">
-        <v>0.00547704674708187</v>
+        <v>0.005228552945142117</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.00547704674708187</v>
+        <v>0.005228552945142117</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -1210,10 +1210,10 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>0.06991744830069792</v>
+        <v>0.06991747393269894</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.070055050098202</v>
+        <v>0.068252799978112</v>
       </c>
     </row>
     <row r="10">
@@ -1224,11 +1224,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.182418123317103</v>
+        <v>0.1823886880359248</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>-0.4339019481024916</v>
+        <v>-0.4339050203906146</v>
       </c>
       <c r="F10" t="n">
         <v>0.6269227145639548</v>
@@ -1241,48 +1241,48 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>0.009012389304711869</v>
+        <v>0.009034815865609469</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01482545459337399</v>
+        <v>0.01483625473780626</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>0.5335036407289497</v>
+        <v>0.5335056355130295</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002093778763033224</v>
+        <v>0.003166804597854909</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.8339484684659534</v>
+        <v>-0.8313295913371355</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.8339484684659534</v>
+        <v>-0.8313295913371355</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.8339484684659534</v>
+        <v>-0.8313295913371355</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.8339484684659534</v>
+        <v>-0.8313295913371355</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.8339484684659534</v>
+        <v>-0.8313295913371355</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>-0.1975252191697494</v>
+        <v>-0.1974271340938236</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.8334798179991963</v>
+        <v>-0.8318107777243946</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.8334798179991963</v>
+        <v>-0.8318107777243946</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.8334798179991963</v>
+        <v>-0.8318107777243946</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.8334798179991963</v>
+        <v>-0.8318107777243946</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -1290,10 +1290,10 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>0.5674550905518225</v>
+        <v>0.5674552856238304</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5590446860712045</v>
+        <v>0.5583589620757591</v>
       </c>
     </row>
     <row r="11">
@@ -1308,11 +1308,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1102161107446444</v>
+        <v>0.1101913864236554</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-0.07818149189525968</v>
+        <v>-0.07815103109404123</v>
       </c>
       <c r="F11" t="n">
         <v>0.01682133235285329</v>
@@ -1325,48 +1325,48 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>0.0114105675604227</v>
+        <v>0.01141054288842171</v>
       </c>
       <c r="K11" t="n">
-        <v>0.006203219864128793</v>
+        <v>0.006203543864141754</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>0.0006703767628150704</v>
+        <v>0.0006694383627775344</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02240310309768956</v>
+        <v>0.0310029556078608</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.02586733034669321</v>
+        <v>-0.02800613190424527</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.02586733034669321</v>
+        <v>-0.02800613190424527</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.02586733034669321</v>
+        <v>-0.02800613190424527</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.02586733034669321</v>
+        <v>-0.02800613190424527</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.02586733034669321</v>
+        <v>-0.02800613190424527</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>-0.02084951833798073</v>
+        <v>-0.02127331774693271</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.02558711679948467</v>
+        <v>-0.02774775346191014</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.02558711679948467</v>
+        <v>-0.02774775346191014</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.02558711679948467</v>
+        <v>-0.02774775346191014</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.02558711679948467</v>
+        <v>-0.02774775346191014</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
@@ -1374,10 +1374,10 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>0.1141368663894746</v>
+        <v>0.114137200181488</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1151763223670529</v>
+        <v>0.1144065418242616</v>
       </c>
     </row>
     <row r="12">
@@ -1392,11 +1392,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.002386603391464136</v>
+        <v>-0.002398534367941374</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0.3395230445249217</v>
+        <v>0.3394947132917885</v>
       </c>
       <c r="F12" t="n">
         <v>0.01287028640281145</v>
@@ -1409,48 +1409,48 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>0.01345791932231677</v>
+        <v>0.01345973545038942</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01998159939126397</v>
+        <v>0.01998422374336895</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>0.02445518689820747</v>
+        <v>0.02445427547417102</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.006350070685925003</v>
+        <v>-0.004673907505816124</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.008810191360407654</v>
+        <v>-0.008989534727581388</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.008810191360407654</v>
+        <v>-0.008989534727581388</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.008810191360407654</v>
+        <v>-0.008989534727581388</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.008810191360407654</v>
+        <v>-0.008989534727581388</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.008810191360407654</v>
+        <v>-0.008989534727581388</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>-0.002954847190193887</v>
+        <v>-0.002935675413427016</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.008686956347478252</v>
+        <v>-0.009042657769706312</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.008686956347478252</v>
+        <v>-0.009042657769706312</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.008686956347478252</v>
+        <v>-0.009042657769706312</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.008686956347478252</v>
+        <v>-0.009042657769706312</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
@@ -1458,10 +1458,10 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>-0.5737923073036922</v>
+        <v>-0.5737922779276911</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.568273675466947</v>
+        <v>-0.5679709381108374</v>
       </c>
     </row>
     <row r="13">
@@ -1476,11 +1476,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0133545201181808</v>
+        <v>0.01340947829637913</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.0009043085161723406</v>
+        <v>-0.0009451973178078925</v>
       </c>
       <c r="F13" t="n">
         <v>0.004202309160092366</v>
@@ -1493,48 +1493,48 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>0.01106684233067369</v>
+        <v>0.01106629378665175</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004547195701887827</v>
+        <v>0.004546820149872806</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>0.01150171706806868</v>
+        <v>0.01150108682804347</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0086417789556803</v>
+        <v>0.0119900748574952</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.01731885698075428</v>
+        <v>-0.01878820443152817</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01731885698075428</v>
+        <v>-0.01878820443152817</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.01731885698075428</v>
+        <v>-0.01878820443152817</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.01731885698075428</v>
+        <v>-0.01878820443152817</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.01731885698075428</v>
+        <v>-0.01878820443152817</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>-0.0153453625338145</v>
+        <v>-0.01571926037277041</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.01719470555178822</v>
+        <v>-0.01860857565634302</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.01719470555178822</v>
+        <v>-0.01860857565634302</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.01719470555178822</v>
+        <v>-0.01860857565634302</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.01719470555178822</v>
+        <v>-0.01860857565634302</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
@@ -1542,10 +1542,10 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>-0.005809627432385097</v>
+        <v>-0.005809569640382786</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.002893800499752019</v>
+        <v>-0.00373486901339476</v>
       </c>
     </row>
     <row r="14">
@@ -1560,11 +1560,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2410955488758219</v>
+        <v>0.2410485322979413</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0.01922738390509535</v>
+        <v>0.0192283624331345</v>
       </c>
       <c r="F14" t="n">
         <v>-0.003040952281638091</v>
@@ -1577,48 +1577,48 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>-0.01891092834043713</v>
+        <v>-0.01891628466065138</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01480563726422549</v>
+        <v>-0.01480801710432068</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>-0.009318902772756111</v>
+        <v>-0.009319977492799099</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01597110994963857</v>
+        <v>0.01472779260711522</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02975274167010966</v>
+        <v>0.03058174336726973</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02975274167010966</v>
+        <v>0.03058174336726973</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02975274167010966</v>
+        <v>0.03058174336726973</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02975274167010966</v>
+        <v>0.03058174336726973</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02975274167010966</v>
+        <v>0.03058174336726973</v>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>0.01641864718474588</v>
+        <v>0.01635845585433823</v>
       </c>
       <c r="V14" t="n">
-        <v>0.02964749168189967</v>
+        <v>0.03046596342663854</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02964749168189967</v>
+        <v>0.03046596342663854</v>
       </c>
       <c r="X14" t="n">
-        <v>0.02964749168189967</v>
+        <v>0.03046596342663854</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02964749168189967</v>
+        <v>0.03046596342663854</v>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
@@ -1626,10 +1626,10 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>0.2871284108771364</v>
+        <v>0.2871278536931141</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.2841697466307898</v>
+        <v>0.2833861653194465</v>
       </c>
     </row>
     <row r="15">
@@ -1644,11 +1644,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.00459689202387568</v>
+        <v>0.004595137143805485</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>-0.01977294933491797</v>
+        <v>-0.01976947605477904</v>
       </c>
       <c r="F15" t="n">
         <v>-0.002633655273346211</v>
@@ -1661,48 +1661,48 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>0.008612574680502985</v>
+        <v>0.008612636792505471</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03261886412075456</v>
+        <v>0.03261905362476214</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>0.01633906874956275</v>
+        <v>0.01634095726163829</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04018297160885493</v>
+        <v>0.03899115322032392</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.02678747684749907</v>
+        <v>-0.02408065661122626</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.02678747684749907</v>
+        <v>-0.02408065661122626</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.02678747684749907</v>
+        <v>-0.02408065661122626</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.02678747684749907</v>
+        <v>-0.02408065661122626</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.02678747684749907</v>
+        <v>-0.02408065661122626</v>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>0.03145896567435862</v>
+        <v>0.03141262877650514</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.02757396052695842</v>
+        <v>-0.02484205980968239</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.02757396052695842</v>
+        <v>-0.02484205980968239</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.02757396052695842</v>
+        <v>-0.02484205980968239</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.02757396052695842</v>
+        <v>-0.02484205980968239</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
@@ -1710,10 +1710,10 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>0.01073066471722659</v>
+        <v>0.01073136666925466</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01103435237737409</v>
+        <v>0.01090118232404729</v>
       </c>
     </row>
     <row r="16">
@@ -1728,11 +1728,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1365343644373745</v>
+        <v>0.1353832626633305</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>-0.1024239882889595</v>
+        <v>-0.1015819472952779</v>
       </c>
       <c r="F16" t="n">
         <v>0.01260830066433202</v>
@@ -1745,48 +1745,48 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>-0.006533391141335646</v>
+        <v>-0.006530112453204498</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.002126377141055085</v>
+        <v>-0.002127225013089</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>0.007798262423930496</v>
+        <v>0.007797491831899672</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02476329522490357</v>
+        <v>0.02568031497311834</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01334193941367758</v>
+        <v>0.01349418341976734</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01334193941367758</v>
+        <v>0.01349418341976734</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01334193941367758</v>
+        <v>0.01349418341976734</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01334193941367758</v>
+        <v>0.01349418341976734</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01334193941367758</v>
+        <v>0.01349418341976734</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>0.01252893160515726</v>
+        <v>0.01236288587051543</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01304968554598742</v>
+        <v>0.01325145365005814</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01304968554598742</v>
+        <v>0.01325145365005814</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01304968554598742</v>
+        <v>0.01325145365005814</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.01304968554598742</v>
+        <v>0.01325145365005814</v>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
@@ -1794,10 +1794,10 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="n">
-        <v>0.1720040128001605</v>
+        <v>0.172005724192229</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.1708960972038439</v>
+        <v>0.1692670854266834</v>
       </c>
     </row>
     <row r="17">
@@ -1812,11 +1812,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.02051894539675781</v>
+        <v>-0.02053227922129117</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>0.005468356250734249</v>
+        <v>0.00546429151457166</v>
       </c>
       <c r="F17" t="n">
         <v>0.007913581660543265</v>
@@ -1829,48 +1829,48 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>0.005543727485749099</v>
+        <v>0.005543968637758744</v>
       </c>
       <c r="K17" t="n">
-        <v>0.008880020515200818</v>
+        <v>0.008880926851237075</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>0.01992480818899232</v>
+        <v>0.01992321103692844</v>
       </c>
       <c r="N17" t="n">
-        <v>0.003906815312569306</v>
+        <v>0.007825049288484917</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.007511296428451857</v>
+        <v>-0.007122262076890483</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.007511296428451857</v>
+        <v>-0.007122262076890483</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.007511296428451857</v>
+        <v>-0.007122262076890483</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.007511296428451857</v>
+        <v>-0.007122262076890483</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.007511296428451857</v>
+        <v>-0.007122262076890483</v>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>-0.002835889265435571</v>
+        <v>-0.002881390579255623</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.007686328723453147</v>
+        <v>-0.0073760825350433</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.007686328723453147</v>
+        <v>-0.0073760825350433</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.007686328723453147</v>
+        <v>-0.0073760825350433</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.007686328723453147</v>
+        <v>-0.0073760825350433</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
@@ -1878,10 +1878,10 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="n">
-        <v>-0.001718474084738963</v>
+        <v>-0.001718672804746912</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.001813401480536059</v>
+        <v>-0.001398047383921895</v>
       </c>
     </row>
     <row r="18">
@@ -1896,11 +1896,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.001853200058172479</v>
+        <v>0.00186666026671121</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0.007130534685392521</v>
+        <v>0.007118847740924762</v>
       </c>
       <c r="F18" t="n">
         <v>0.001551448094095159</v>
@@ -1913,48 +1913,48 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>0.03541058992927346</v>
+        <v>0.03541357629739298</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02855239760678116</v>
+        <v>0.02855181680675791</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>0.006921604597030302</v>
+        <v>0.006921950581044151</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.02300288745473537</v>
+        <v>-0.01968192644910818</v>
       </c>
       <c r="O18" t="n">
-        <v>0.001223961552987837</v>
+        <v>-0.0005973689039090931</v>
       </c>
       <c r="P18" t="n">
-        <v>0.001223961552987837</v>
+        <v>-0.0005973689039090931</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.001223961552987837</v>
+        <v>-0.0005973689039090931</v>
       </c>
       <c r="R18" t="n">
-        <v>0.001223961552987837</v>
+        <v>-0.0005973689039090931</v>
       </c>
       <c r="S18" t="n">
-        <v>0.001223961552987837</v>
+        <v>-0.0005973689039090931</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>-0.01220115572033906</v>
+        <v>-0.01237612547134205</v>
       </c>
       <c r="V18" t="n">
-        <v>0.00145395063419292</v>
+        <v>-0.0002588101543586176</v>
       </c>
       <c r="W18" t="n">
-        <v>0.00145395063419292</v>
+        <v>-0.0002588101543586176</v>
       </c>
       <c r="X18" t="n">
-        <v>0.00145395063419292</v>
+        <v>-0.0002588101543586176</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.00145395063419292</v>
+        <v>-0.0002588101543586176</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
@@ -1962,10 +1962,10 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="n">
-        <v>-0.008554760070395717</v>
+        <v>-0.008554676262392362</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.008979882647410823</v>
+        <v>-0.01136668869494035</v>
       </c>
     </row>
     <row r="19">
@@ -1980,11 +1980,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.003101220604346542</v>
+        <v>0.00308692860377349</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>-0.0107890338725971</v>
+        <v>-0.01079563003286158</v>
       </c>
       <c r="F19" t="n">
         <v>0.001980136687395561</v>
@@ -1997,48 +1997,48 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>-0.001563819134702892</v>
+        <v>-0.0015567288624186</v>
       </c>
       <c r="K19" t="n">
-        <v>0.009044266058638893</v>
+        <v>0.009047017706749221</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-0.0006247227130488818</v>
+        <v>-0.0006236451130056744</v>
       </c>
       <c r="N19" t="n">
-        <v>0.02644283573485052</v>
+        <v>0.01874150855058369</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003151128126347633</v>
+        <v>0.004061436834847372</v>
       </c>
       <c r="P19" t="n">
-        <v>0.003151128126347633</v>
+        <v>0.004061436834847372</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.003151128126347633</v>
+        <v>0.004061436834847372</v>
       </c>
       <c r="R19" t="n">
-        <v>0.003151128126347633</v>
+        <v>0.004061436834847372</v>
       </c>
       <c r="S19" t="n">
-        <v>0.003151128126347633</v>
+        <v>0.004061436834847372</v>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>0.01562200843438005</v>
+        <v>0.0155760150245359</v>
       </c>
       <c r="V19" t="n">
-        <v>0.002870319091088314</v>
+        <v>0.003901117404419203</v>
       </c>
       <c r="W19" t="n">
-        <v>0.002870319091088314</v>
+        <v>0.003901117404419203</v>
       </c>
       <c r="X19" t="n">
-        <v>0.002870319091088314</v>
+        <v>0.003901117404419203</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.002870319091088314</v>
+        <v>0.003901117404419203</v>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
@@ -2046,10 +2046,10 @@
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
-        <v>-0.0003756648150626564</v>
+        <v>-0.0003760934550798432</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0009065601963494376</v>
+        <v>0.002152881014321917</v>
       </c>
     </row>
     <row r="20">
@@ -2064,11 +2064,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.5213042754441709</v>
+        <v>-0.5217487659259505</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.3981672332066893</v>
+        <v>0.3985010823400433</v>
       </c>
       <c r="F20" t="n">
         <v>0.003325282405011295</v>
@@ -2081,48 +2081,48 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-0.003294083747763349</v>
+        <v>-0.003294510563780422</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.007343114597724583</v>
+        <v>-0.007344861125794444</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>0.01048989152359566</v>
+        <v>0.01048933289957331</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001991382933427239</v>
+        <v>-0.001435748931630301</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.001602552928102117</v>
+        <v>-0.002761749710469988</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.001602552928102117</v>
+        <v>-0.002761749710469988</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.001602552928102117</v>
+        <v>-0.002761749710469988</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.001602552928102117</v>
+        <v>-0.002761749710469988</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.001602552928102117</v>
+        <v>-0.002761749710469988</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>-0.00549497925979917</v>
+        <v>-0.005555408286216331</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.001412115128484605</v>
+        <v>-0.002486275107451004</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.001412115128484605</v>
+        <v>-0.002486275107451004</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.001412115128484605</v>
+        <v>-0.002486275107451004</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.001412115128484605</v>
+        <v>-0.002486275107451004</v>
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
@@ -2130,10 +2130,10 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>-9.782141191285646e-05</v>
+        <v>-9.849917193996686e-05</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.001378127671125107</v>
+        <v>0.001950272526010901</v>
       </c>
     </row>
     <row r="21">
@@ -2148,11 +2148,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01488482574739303</v>
+        <v>0.01488826350753054</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>-0.02172836314113452</v>
+        <v>-0.02174761430990457</v>
       </c>
       <c r="F21" t="n">
         <v>0.003902114844084593</v>
@@ -2165,48 +2165,48 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>0.002220185464807418</v>
+        <v>0.002220012952800518</v>
       </c>
       <c r="K21" t="n">
-        <v>0.007263935426557415</v>
+        <v>0.007259867714394707</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>0.01217354093494163</v>
+        <v>0.0121723099268924</v>
       </c>
       <c r="N21" t="n">
-        <v>0.007685033459737031</v>
+        <v>0.005582043769829326</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.02409955536398221</v>
+        <v>-0.02309697845987914</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.02409955536398221</v>
+        <v>-0.02309697845987914</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.02409955536398221</v>
+        <v>-0.02309697845987914</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.02409955536398221</v>
+        <v>-0.02309697845987914</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.02409955536398221</v>
+        <v>-0.02309697845987914</v>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>-0.001124915564996622</v>
+        <v>-0.00112145150085806</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.02413897306155892</v>
+        <v>-0.02320183312007332</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.02413897306155892</v>
+        <v>-0.02320183312007332</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.02413897306155892</v>
+        <v>-0.02320183312007332</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.02413897306155892</v>
+        <v>-0.02320183312007332</v>
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
@@ -2214,10 +2214,10 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="n">
-        <v>0.03734814110992564</v>
+        <v>0.03734746910989876</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.03551616036464641</v>
+        <v>0.03460888218435528</v>
       </c>
     </row>
     <row r="22">
@@ -2232,11 +2232,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02680474705618988</v>
+        <v>-0.02677118065484722</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0.007686182131447284</v>
+        <v>0.007680525235221008</v>
       </c>
       <c r="F22" t="n">
         <v>0.01245000808200032</v>
@@ -2249,48 +2249,48 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>0.001051358058054322</v>
+        <v>0.001051180938047237</v>
       </c>
       <c r="K22" t="n">
-        <v>0.006663649418545975</v>
+        <v>0.006664927178597087</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>0.02116841191873647</v>
+        <v>0.02116715383868615</v>
       </c>
       <c r="N22" t="n">
-        <v>0.002235788300683558</v>
+        <v>-0.003150299274667627</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.002238327065533082</v>
+        <v>-0.001255348274213931</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.002238327065533082</v>
+        <v>-0.001255348274213931</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.002238327065533082</v>
+        <v>-0.001255348274213931</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.002238327065533082</v>
+        <v>-0.001255348274213931</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.002238327065533082</v>
+        <v>-0.001255348274213931</v>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>0.01207136957085478</v>
+        <v>0.01207170969886839</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.002519782852791314</v>
+        <v>-0.001578191583127663</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.002519782852791314</v>
+        <v>-0.001578191583127663</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.002519782852791314</v>
+        <v>-0.001578191583127663</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.002519782852791314</v>
+        <v>-0.001578191583127663</v>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
@@ -2298,10 +2298,10 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="n">
-        <v>-0.01867113396284536</v>
+        <v>-0.01867186548287462</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.02096641706265668</v>
+        <v>-0.02057546626301865</v>
       </c>
     </row>
     <row r="23">
@@ -2316,11 +2316,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01455643805425752</v>
+        <v>-0.01454569306182772</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>-0.001136176365447054</v>
+        <v>-0.001129542573181703</v>
       </c>
       <c r="F23" t="n">
         <v>-0.01327716629108665</v>
@@ -2333,48 +2333,48 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>0.002860404978416199</v>
+        <v>0.002858222034328881</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01426006962640278</v>
+        <v>0.01426290901851636</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>-0.009513988604559542</v>
+        <v>-0.009511997564479902</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.009881832013035651</v>
+        <v>-0.003780429018596691</v>
       </c>
       <c r="O23" t="n">
-        <v>0.009277252115090085</v>
+        <v>0.009510133148405325</v>
       </c>
       <c r="P23" t="n">
-        <v>0.009277252115090085</v>
+        <v>0.009510133148405325</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.009277252115090085</v>
+        <v>0.009510133148405325</v>
       </c>
       <c r="R23" t="n">
-        <v>0.009277252115090085</v>
+        <v>0.009510133148405325</v>
       </c>
       <c r="S23" t="n">
-        <v>0.009277252115090085</v>
+        <v>0.009510133148405325</v>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>0.01140195300007812</v>
+        <v>0.01143296445731858</v>
       </c>
       <c r="V23" t="n">
-        <v>0.00912183876487355</v>
+        <v>0.009433502969340118</v>
       </c>
       <c r="W23" t="n">
-        <v>0.00912183876487355</v>
+        <v>0.009433502969340118</v>
       </c>
       <c r="X23" t="n">
-        <v>0.00912183876487355</v>
+        <v>0.009433502969340118</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.00912183876487355</v>
+        <v>0.009433502969340118</v>
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
@@ -2382,10 +2382,10 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="n">
-        <v>-0.008460680498427218</v>
+        <v>-0.008461066802442671</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.009531683997267358</v>
+        <v>-0.009972099662883985</v>
       </c>
     </row>
     <row r="24">
@@ -2400,11 +2400,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01677245519889821</v>
+        <v>-0.0167760399350416</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.009440851481634057</v>
+        <v>0.009457837818313511</v>
       </c>
       <c r="F24" t="n">
         <v>0.009563439454537576</v>
@@ -2417,48 +2417,48 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>-0.006220373720814948</v>
+        <v>-0.006217768184710727</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.004234351561374062</v>
+        <v>-0.004236369001454759</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>0.02260369895214796</v>
+        <v>0.02260470906418836</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.02598922259594556</v>
+        <v>-0.03122407152556261</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.003734325557373022</v>
+        <v>-0.004800098496003939</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.003734325557373022</v>
+        <v>-0.004800098496003939</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.003734325557373022</v>
+        <v>-0.004800098496003939</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.003734325557373022</v>
+        <v>-0.004800098496003939</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.003734325557373022</v>
+        <v>-0.004800098496003939</v>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>-0.008475047091001883</v>
+        <v>-0.008738319133532764</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.003665377778615111</v>
+        <v>-0.004751753374070134</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.003665377778615111</v>
+        <v>-0.004751753374070134</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.003665377778615111</v>
+        <v>-0.004751753374070134</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.003665377778615111</v>
+        <v>-0.004751753374070134</v>
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
@@ -2466,10 +2466,10 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="n">
-        <v>-0.001025565929022637</v>
+        <v>-0.001027233449089338</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.001104548876181955</v>
+        <v>-0.002037098097483924</v>
       </c>
     </row>
     <row r="25">
@@ -2480,11 +2480,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.005356928950277158</v>
+        <v>0.005379231191169247</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.007850118362004733</v>
+        <v>0.007839795673591827</v>
       </c>
       <c r="F25" t="n">
         <v>0.002663445418537816</v>
@@ -2497,48 +2497,48 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>-0.01569922449996898</v>
+        <v>-0.01569855576394223</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.02344363447374537</v>
+        <v>-0.02344023482560939</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>-0.009964392878575715</v>
+        <v>-0.009963421454536856</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.00199446097664051</v>
+        <v>-0.002571652616093125</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02089761472390459</v>
+        <v>0.02014051078962043</v>
       </c>
       <c r="P25" t="n">
-        <v>0.02089761472390459</v>
+        <v>0.02014051078962043</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02089761472390459</v>
+        <v>0.02014051078962043</v>
       </c>
       <c r="R25" t="n">
-        <v>0.02089761472390459</v>
+        <v>0.02014051078962043</v>
       </c>
       <c r="S25" t="n">
-        <v>0.02089761472390459</v>
+        <v>0.02014051078962043</v>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>-0.009530948157237927</v>
+        <v>-0.009442918457716738</v>
       </c>
       <c r="V25" t="n">
-        <v>0.02129425381177015</v>
+        <v>0.02055003250200129</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02129425381177015</v>
+        <v>0.02055003250200129</v>
       </c>
       <c r="X25" t="n">
-        <v>0.02129425381177015</v>
+        <v>0.02055003250200129</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.02129425381177015</v>
+        <v>0.02055003250200129</v>
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
@@ -2546,10 +2546,10 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="n">
-        <v>-0.01796327217453088</v>
+        <v>-0.01796424311856972</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.01788093220323728</v>
+        <v>-0.01692574858102994</v>
       </c>
     </row>
     <row r="26">
@@ -2564,11 +2564,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01962006433680257</v>
+        <v>0.01956845166273806</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>-0.00347556551502262</v>
+        <v>-0.00346313226652529</v>
       </c>
       <c r="F26" t="n">
         <v>-0.001948210925928437</v>
@@ -2581,48 +2581,48 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>0.003779118967164758</v>
+        <v>0.003784818871392755</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.001271026034841041</v>
+        <v>-0.001270357586814303</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>-0.01577645074305803</v>
+        <v>-0.01577614296704572</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.007484320561888118</v>
+        <v>-0.00280907633409258</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.003269301058772042</v>
+        <v>-0.002672701354908054</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.003269301058772042</v>
+        <v>-0.002672701354908054</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.003269301058772042</v>
+        <v>-0.002672701354908054</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.003269301058772042</v>
+        <v>-0.002672701354908054</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.003269301058772042</v>
+        <v>-0.002672701354908054</v>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>-0.007257086210283448</v>
+        <v>-0.007169258398770336</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.003270506434820257</v>
+        <v>-0.002723846412953856</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.003270506434820257</v>
+        <v>-0.002723846412953856</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.003270506434820257</v>
+        <v>-0.002723846412953856</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.003270506434820257</v>
+        <v>-0.002723846412953856</v>
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
@@ -2630,10 +2630,10 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="n">
-        <v>0.007858993178359726</v>
+        <v>0.007859787770391509</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.006993499479739978</v>
+        <v>0.007808128152325126</v>
       </c>
     </row>
     <row r="27">
@@ -2648,11 +2648,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.009998211087928442</v>
+        <v>-0.01003473880138955</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>-0.006369468830778752</v>
+        <v>-0.006361093118443724</v>
       </c>
       <c r="F27" t="n">
         <v>0.01540679082427163</v>
@@ -2665,48 +2665,48 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>0.02215060043802401</v>
+        <v>0.02215188847007554</v>
       </c>
       <c r="K27" t="n">
-        <v>0.007979291359171654</v>
+        <v>0.00797627523105101</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>0.01053394717335789</v>
+        <v>0.01053408186136327</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.008960551526992818</v>
+        <v>-0.01388326742521472</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.02946988236279529</v>
+        <v>-0.03147100234684009</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.02946988236279529</v>
+        <v>-0.03147100234684009</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.02946988236279529</v>
+        <v>-0.03147100234684009</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.02946988236279529</v>
+        <v>-0.03147100234684009</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.02946988236279529</v>
+        <v>-0.03147100234684009</v>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>-0.0296975377319015</v>
+        <v>-0.02976048435841937</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.02897645223105809</v>
+        <v>-0.03103342866533714</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.02897645223105809</v>
+        <v>-0.03103342866533714</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.02897645223105809</v>
+        <v>-0.03103342866533714</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.02897645223105809</v>
+        <v>-0.03103342866533714</v>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
@@ -2714,10 +2714,10 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="n">
-        <v>0.02204133620965345</v>
+        <v>0.02204334548973381</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.02260585136823405</v>
+        <v>0.02389387737175509</v>
       </c>
     </row>
     <row r="28">
@@ -2728,11 +2728,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.01723454526538181</v>
+        <v>-0.01724463553778542</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>0.004878426243137049</v>
+        <v>0.004860440642417626</v>
       </c>
       <c r="F28" t="n">
         <v>0.03298489053539561</v>
@@ -2745,48 +2745,48 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>-0.01183944594557784</v>
+        <v>-0.01183807717752309</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.01413209787728391</v>
+        <v>-0.01413118645324746</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>0.04135445915817836</v>
+        <v>0.04135363048614522</v>
       </c>
       <c r="N28" t="n">
-        <v>0.002686998955321077</v>
+        <v>-0.001380784068679305</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.0276334951213398</v>
+        <v>-0.02682347291293891</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.0276334951213398</v>
+        <v>-0.02682347291293891</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.0276334951213398</v>
+        <v>-0.02682347291293891</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.0276334951213398</v>
+        <v>-0.02682347291293891</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.0276334951213398</v>
+        <v>-0.02682347291293891</v>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>-0.01007397467495899</v>
+        <v>-0.009853751242150047</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.02762884728115388</v>
+        <v>-0.02678428916737156</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.02762884728115388</v>
+        <v>-0.02678428916737156</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.02762884728115388</v>
+        <v>-0.02678428916737156</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.02762884728115388</v>
+        <v>-0.02678428916737156</v>
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
@@ -2794,10 +2794,10 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
-        <v>0.005693375171735006</v>
+        <v>0.005694138659765546</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.006906801396272056</v>
+        <v>0.005286438739457549</v>
       </c>
     </row>
     <row r="29">
@@ -2808,11 +2808,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.0005495646939825878</v>
+        <v>-0.000513429428537177</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>0.003235441185417647</v>
+        <v>0.003221275808851032</v>
       </c>
       <c r="F29" t="n">
         <v>-0.008481875955275038</v>
@@ -2825,48 +2825,48 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>0.002404715328188613</v>
+        <v>0.002406689952267598</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.003053031962121278</v>
+        <v>-0.003056204570248183</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>-0.002114611860584474</v>
+        <v>-0.002113383540535341</v>
       </c>
       <c r="N29" t="n">
-        <v>0.003601820806689832</v>
+        <v>-0.001358967661913908</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.001182270287290811</v>
+        <v>-0.002243736185749447</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.001182270287290811</v>
+        <v>-0.002243736185749447</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.001182270287290811</v>
+        <v>-0.002243736185749447</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.001182270287290811</v>
+        <v>-0.002243736185749447</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.001182270287290811</v>
+        <v>-0.002243736185749447</v>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>-0.0183161151006446</v>
+        <v>-0.01839664729586589</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.0009936173197446928</v>
+        <v>-0.001934803565392142</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.0009936173197446928</v>
+        <v>-0.001934803565392142</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.0009936173197446928</v>
+        <v>-0.001934803565392142</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.0009936173197446928</v>
+        <v>-0.001934803565392142</v>
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
@@ -2874,10 +2874,10 @@
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="n">
-        <v>-0.01627793633111745</v>
+        <v>-0.01627849293913971</v>
       </c>
       <c r="AF29" t="n">
-        <v>-0.01471494327659773</v>
+        <v>-0.01623167815326712</v>
       </c>
     </row>
     <row r="30">
@@ -2888,11 +2888,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.0109766325670653</v>
+        <v>-0.0110039174961567</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.004689312667572507</v>
+        <v>0.004703871548154862</v>
       </c>
       <c r="F30" t="n">
         <v>-0.0211192325567693</v>
@@ -2905,48 +2905,48 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>-0.02113692113347684</v>
+        <v>-0.02113719742148789</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.007594202895768115</v>
+        <v>-0.007593459375738374</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>-0.01254509944580398</v>
+        <v>-0.01254524824580993</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01451572745322973</v>
+        <v>0.01544389056762482</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01284856102594244</v>
+        <v>0.0142388774335551</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01284856102594244</v>
+        <v>0.0142388774335551</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01284856102594244</v>
+        <v>0.0142388774335551</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01284856102594244</v>
+        <v>0.0142388774335551</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01284856102594244</v>
+        <v>0.0142388774335551</v>
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>0.02781394786455791</v>
+        <v>0.02777613067904523</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01245149454605978</v>
+        <v>0.01379059523962381</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01245149454605978</v>
+        <v>0.01379059523962381</v>
       </c>
       <c r="X30" t="n">
-        <v>0.01245149454605978</v>
+        <v>0.01379059523962381</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.01245149454605978</v>
+        <v>0.01379059523962381</v>
       </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
@@ -2954,10 +2954,10 @@
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="n">
-        <v>-0.00359922551996902</v>
+        <v>-0.003600973584038943</v>
       </c>
       <c r="AF30" t="n">
-        <v>-0.003018950328758013</v>
+        <v>-0.003065801594632063</v>
       </c>
     </row>
     <row r="31">
@@ -2972,11 +2972,11 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.004926640805065632</v>
+        <v>0.004915068676602747</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.009733895141355805</v>
+        <v>0.009740537093621483</v>
       </c>
       <c r="F31" t="n">
         <v>0.001472003290880131</v>
@@ -2989,48 +2989,48 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>-0.01090501157220046</v>
+        <v>-0.01090524168420967</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0176575549783022</v>
+        <v>-0.01765820384232815</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>-0.001607699200307968</v>
+        <v>-0.001605913312236532</v>
       </c>
       <c r="N31" t="n">
-        <v>0.003838555954262387</v>
+        <v>0.008100647182259202</v>
       </c>
       <c r="O31" t="n">
-        <v>0.003740610869624434</v>
+        <v>0.003377641863105674</v>
       </c>
       <c r="P31" t="n">
-        <v>0.003740610869624434</v>
+        <v>0.003377641863105674</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.003740610869624434</v>
+        <v>0.003377641863105674</v>
       </c>
       <c r="R31" t="n">
-        <v>0.003740610869624434</v>
+        <v>0.003377641863105674</v>
       </c>
       <c r="S31" t="n">
-        <v>0.003740610869624434</v>
+        <v>0.003377641863105674</v>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>-0.01356475091059003</v>
+        <v>-0.01349745836389833</v>
       </c>
       <c r="V31" t="n">
-        <v>0.004060777122431085</v>
+        <v>0.003757831830313273</v>
       </c>
       <c r="W31" t="n">
-        <v>0.004060777122431085</v>
+        <v>0.003757831830313273</v>
       </c>
       <c r="X31" t="n">
-        <v>0.004060777122431085</v>
+        <v>0.003757831830313273</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.004060777122431085</v>
+        <v>0.003757831830313273</v>
       </c>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
@@ -3038,10 +3038,10 @@
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="n">
-        <v>0.002175742647029705</v>
+        <v>0.00217523624700945</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.001624535872981435</v>
+        <v>0.003410241160409646</v>
       </c>
     </row>
     <row r="32">
@@ -3052,11 +3052,11 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.01386143575445743</v>
+        <v>-0.01385496919419877</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>0.003042991897719676</v>
+        <v>0.003068602874744115</v>
       </c>
       <c r="F32" t="n">
         <v>0.009624370368974813</v>
@@ -3069,48 +3069,48 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>-0.003419057416762296</v>
+        <v>-0.003424281736971269</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.006497661667906466</v>
+        <v>-0.006502344548093781</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>0.01638904903956196</v>
+        <v>0.01638917710356708</v>
       </c>
       <c r="N32" t="n">
-        <v>0.01538058511514113</v>
+        <v>0.01743391841872158</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.01233829086153163</v>
+        <v>-0.01242251608090064</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.01233829086153163</v>
+        <v>-0.01242251608090064</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.01233829086153163</v>
+        <v>-0.01242251608090064</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.01233829086153163</v>
+        <v>-0.01242251608090064</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.01233829086153163</v>
+        <v>-0.01242251608090064</v>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>-0.006708350668334026</v>
+        <v>-0.006598693895947754</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.01202409283296371</v>
+        <v>-0.01226704666668186</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.01202409283296371</v>
+        <v>-0.01226704666668186</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.01202409283296371</v>
+        <v>-0.01226704666668186</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.01202409283296371</v>
+        <v>-0.01226704666668186</v>
       </c>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
@@ -3118,10 +3118,10 @@
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="n">
-        <v>0.02082903577716143</v>
+        <v>0.02082886988915479</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.01891616072464643</v>
+        <v>0.01897682850307314</v>
       </c>
     </row>
     <row r="33">
@@ -3136,11 +3136,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01170351157214046</v>
+        <v>0.01171812286872491</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>-0.003689975091599003</v>
+        <v>-0.00367591176303647</v>
       </c>
       <c r="F33" t="n">
         <v>0.005665040962601637</v>
@@ -3153,48 +3153,48 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>-0.001968494862739794</v>
+        <v>-0.001966852206674088</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0008175750087030003</v>
+        <v>0.0008194147527765899</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>-0.007790593367623734</v>
+        <v>-0.0077904600236184</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.01951302644331965</v>
+        <v>-0.01330101615529407</v>
       </c>
       <c r="O33" t="n">
-        <v>0.004178756519150261</v>
+        <v>0.004230219625208784</v>
       </c>
       <c r="P33" t="n">
-        <v>0.004178756519150261</v>
+        <v>0.004230219625208784</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.004178756519150261</v>
+        <v>0.004230219625208784</v>
       </c>
       <c r="R33" t="n">
-        <v>0.004178756519150261</v>
+        <v>0.004230219625208784</v>
       </c>
       <c r="S33" t="n">
-        <v>0.004178756519150261</v>
+        <v>0.004230219625208784</v>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>0.001042346921693877</v>
+        <v>0.001016483656659346</v>
       </c>
       <c r="V33" t="n">
-        <v>0.00426200426648017</v>
+        <v>0.004156460710258427</v>
       </c>
       <c r="W33" t="n">
-        <v>0.00426200426648017</v>
+        <v>0.004156460710258427</v>
       </c>
       <c r="X33" t="n">
-        <v>0.00426200426648017</v>
+        <v>0.004156460710258427</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.00426200426648017</v>
+        <v>0.004156460710258427</v>
       </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
@@ -3202,10 +3202,10 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="n">
-        <v>-0.005080749995229999</v>
+        <v>-0.005080238123209524</v>
       </c>
       <c r="AF33" t="n">
-        <v>-0.00776293903051756</v>
+        <v>-0.006398988831959552</v>
       </c>
     </row>
     <row r="34">
@@ -3216,11 +3216,11 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.01120490320019613</v>
+        <v>0.01120699974427999</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-0.009291588083663522</v>
+        <v>-0.009269147986765919</v>
       </c>
       <c r="F34" t="n">
         <v>0.008420849712833987</v>
@@ -3233,48 +3233,48 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>-0.02291679278867171</v>
+        <v>-0.02291374843654994</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.01491717198868688</v>
+        <v>-0.01491580245263209</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>0.004299554475982179</v>
+        <v>0.00429919649196786</v>
       </c>
       <c r="N34" t="n">
-        <v>0.005532186867488872</v>
+        <v>0.01260749560439003</v>
       </c>
       <c r="O34" t="n">
-        <v>0.004119439748777589</v>
+        <v>0.00544456101778244</v>
       </c>
       <c r="P34" t="n">
-        <v>0.004119439748777589</v>
+        <v>0.00544456101778244</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.004119439748777589</v>
+        <v>0.00544456101778244</v>
       </c>
       <c r="R34" t="n">
-        <v>0.004119439748777589</v>
+        <v>0.00544456101778244</v>
       </c>
       <c r="S34" t="n">
-        <v>0.004119439748777589</v>
+        <v>0.00544456101778244</v>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>0.01695163143006526</v>
+        <v>0.01712046903681876</v>
       </c>
       <c r="V34" t="n">
-        <v>0.003790653943626157</v>
+        <v>0.005178504879140194</v>
       </c>
       <c r="W34" t="n">
-        <v>0.003790653943626157</v>
+        <v>0.005178504879140194</v>
       </c>
       <c r="X34" t="n">
-        <v>0.003790653943626157</v>
+        <v>0.005178504879140194</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.003790653943626157</v>
+        <v>0.005178504879140194</v>
       </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
@@ -3282,10 +3282,10 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="n">
-        <v>0.007396807207872286</v>
+        <v>0.007396650055866001</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.005821804072872162</v>
+        <v>0.005478922299156891</v>
       </c>
     </row>
     <row r="35">
@@ -3300,11 +3300,11 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.06301806242472248</v>
+        <v>-0.06337670547906821</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>-0.2455141163805646</v>
+        <v>-0.2454927444757097</v>
       </c>
       <c r="F35" t="n">
         <v>0.02295766239030649</v>
@@ -3317,48 +3317,48 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-0.1158616621704665</v>
+        <v>-0.1158625116745005</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2839231480609259</v>
+        <v>0.2839240606369624</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>0.1769736677509467</v>
+        <v>0.1769750303750012</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2935368164466572</v>
+        <v>0.2889687983971102</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.08591478881259156</v>
+        <v>-0.04657925850317034</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.08591478881259156</v>
+        <v>-0.04657925850317034</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.08591478881259156</v>
+        <v>-0.04657925850317034</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.08591478881259156</v>
+        <v>-0.04657925850317034</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.08591478881259156</v>
+        <v>-0.04657925850317034</v>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>0.6638863791954551</v>
+        <v>0.6636129056165161</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.09780153165606126</v>
+        <v>-0.05946748087469923</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.09780153165606126</v>
+        <v>-0.05946748087469923</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.09780153165606126</v>
+        <v>-0.05946748087469923</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.09780153165606126</v>
+        <v>-0.05946748087469923</v>
       </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
@@ -3366,10 +3366,10 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="n">
-        <v>0.1059066068282642</v>
+        <v>0.1059057018362281</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.1053901589676063</v>
+        <v>0.1043171382206855</v>
       </c>
     </row>
     <row r="36">
@@ -3380,11 +3380,11 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.005575353727014148</v>
+        <v>-0.005564019774560791</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>-0.0003060569402422776</v>
+        <v>-0.0003006651960266078</v>
       </c>
       <c r="F36" t="n">
         <v>0.003536041581441663</v>
@@ -3397,48 +3397,48 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>0.01702148717685949</v>
+        <v>0.01702367031294681</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00434283300571332</v>
+        <v>0.004341967469678698</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>0.01011003342840134</v>
+        <v>0.01010950389238016</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.02020353572151888</v>
+        <v>-0.01884756716354416</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.00996475124659005</v>
+        <v>-0.01140812608832504</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.00996475124659005</v>
+        <v>-0.01140812608832504</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.00996475124659005</v>
+        <v>-0.01140812608832504</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.00996475124659005</v>
+        <v>-0.01140812608832504</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.00996475124659005</v>
+        <v>-0.01140812608832504</v>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>-0.02919319950372798</v>
+        <v>-0.02897824119112964</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.009427514969100598</v>
+        <v>-0.01075031371001255</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.009427514969100598</v>
+        <v>-0.01075031371001255</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.009427514969100598</v>
+        <v>-0.01075031371001255</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.009427514969100598</v>
+        <v>-0.01075031371001255</v>
       </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
@@ -3446,10 +3446,10 @@
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="n">
-        <v>0.01908153177126127</v>
+        <v>0.01908266034730641</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.01905605202624208</v>
+        <v>0.01939244717569788</v>
       </c>
     </row>
     <row r="37">
@@ -3464,11 +3464,11 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.2049314823732593</v>
+        <v>0.2049055100522204</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-0.1531809701592388</v>
+        <v>-0.1531828429273137</v>
       </c>
       <c r="F37" t="n">
         <v>0.003793967191758687</v>
@@ -3481,48 +3481,48 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>0.2150356077694243</v>
+        <v>0.2150346612093864</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1498478700899148</v>
+        <v>0.149850025098001</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>-0.1179732644309306</v>
+        <v>-0.1179737294549491</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.3894640816209092</v>
+        <v>-0.3921092992854925</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.08493667645346704</v>
+        <v>-0.092886400675456</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.08493667645346704</v>
+        <v>-0.092886400675456</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.08493667645346704</v>
+        <v>-0.092886400675456</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.08493667645346704</v>
+        <v>-0.092886400675456</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.08493667645346704</v>
+        <v>-0.092886400675456</v>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>-0.1402736835309473</v>
+        <v>-0.1404350276654011</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.0827831027993241</v>
+        <v>-0.09065253204210127</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.0827831027993241</v>
+        <v>-0.09065253204210127</v>
       </c>
       <c r="X37" t="n">
-        <v>-0.0827831027993241</v>
+        <v>-0.09065253204210127</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.0827831027993241</v>
+        <v>-0.09065253204210127</v>
       </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
@@ -3530,10 +3530,10 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="n">
-        <v>0.129619626144785</v>
+        <v>0.1296201470408058</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.1259900034716001</v>
+        <v>0.1251646437265857</v>
       </c>
     </row>
     <row r="38">
@@ -3544,11 +3544,11 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.349305402388216</v>
+        <v>0.3492635508985419</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>-0.2695280437731217</v>
+        <v>-0.2695044531161781</v>
       </c>
       <c r="F38" t="n">
         <v>-0.02213075656523026</v>
@@ -3561,48 +3561,48 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-0.02121232683249307</v>
+        <v>-0.02121157323246292</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.01543788906551556</v>
+        <v>-0.01543872157754886</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>-0.3049415213816608</v>
+        <v>-0.3049412896376515</v>
       </c>
       <c r="N38" t="n">
-        <v>0.003283534338201811</v>
+        <v>0.001868625625773921</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01982104293684171</v>
+        <v>0.02008960227558409</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01982104293684171</v>
+        <v>0.02008960227558409</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01982104293684171</v>
+        <v>0.02008960227558409</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01982104293684171</v>
+        <v>0.02008960227558409</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01982104293684171</v>
+        <v>0.02008960227558409</v>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>0.01151964670078587</v>
+        <v>0.01144699140187965</v>
       </c>
       <c r="V38" t="n">
-        <v>0.01961640654465626</v>
+        <v>0.01997589113503564</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01961640654465626</v>
+        <v>0.01997589113503564</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01961640654465626</v>
+        <v>0.01997589113503564</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.01961640654465626</v>
+        <v>0.01997589113503564</v>
       </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
@@ -3610,10 +3610,10 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="n">
-        <v>0.1294133119605325</v>
+        <v>0.1294140406965616</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.13199950070398</v>
+        <v>0.1339608123664325</v>
       </c>
     </row>
     <row r="39">
@@ -3628,11 +3628,11 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.00458107448724298</v>
+        <v>0.004557922358316893</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>-0.01087123944284958</v>
+        <v>-0.0108236974569479</v>
       </c>
       <c r="F39" t="n">
         <v>0.01576453935058157</v>
@@ -3645,48 +3645,48 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>0.01211677728467109</v>
+        <v>0.01211766173270647</v>
       </c>
       <c r="K39" t="n">
-        <v>0.008216209864648393</v>
+        <v>0.008213532424541297</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>-0.002385449855417994</v>
+        <v>-0.002385413855416554</v>
       </c>
       <c r="N39" t="n">
-        <v>0.008571340942786809</v>
+        <v>0.006061896957133027</v>
       </c>
       <c r="O39" t="n">
-        <v>0.01058405850336234</v>
+        <v>0.01048662377946495</v>
       </c>
       <c r="P39" t="n">
-        <v>0.01058405850336234</v>
+        <v>0.01048662377946495</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01058405850336234</v>
+        <v>0.01048662377946495</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01058405850336234</v>
+        <v>0.01048662377946495</v>
       </c>
       <c r="S39" t="n">
-        <v>0.01058405850336234</v>
+        <v>0.01048662377946495</v>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>0.0004706382908255316</v>
+        <v>0.0004760016190400647</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0105455550138222</v>
+        <v>0.01053442390937696</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0105455550138222</v>
+        <v>0.01053442390937696</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0105455550138222</v>
+        <v>0.01053442390937696</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0105455550138222</v>
+        <v>0.01053442390937696</v>
       </c>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
@@ -3694,10 +3694,10 @@
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="n">
-        <v>0.0008827850273114009</v>
+        <v>0.0008824226272969051</v>
       </c>
       <c r="AF39" t="n">
-        <v>-0.001490666651626666</v>
+        <v>-0.003045129913805197</v>
       </c>
     </row>
     <row r="40">
@@ -3712,11 +3712,11 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.005789256039570241</v>
+        <v>-0.005823067432922696</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>-0.005137006189480247</v>
+        <v>-0.005170064750802589</v>
       </c>
       <c r="F40" t="n">
         <v>-0.001207098384283935</v>
@@ -3729,48 +3729,48 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>-0.02286675288267011</v>
+        <v>-0.02287018296280732</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.008841752321670091</v>
+        <v>-0.008839885889595434</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>-0.007159139806365592</v>
+        <v>-0.007158667102346683</v>
       </c>
       <c r="N40" t="n">
-        <v>0.01425860517143808</v>
+        <v>0.01393241518130351</v>
       </c>
       <c r="O40" t="n">
-        <v>0.02151026198041048</v>
+        <v>0.02376272533450901</v>
       </c>
       <c r="P40" t="n">
-        <v>0.02151026198041048</v>
+        <v>0.02376272533450901</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.02151026198041048</v>
+        <v>0.02376272533450901</v>
       </c>
       <c r="R40" t="n">
-        <v>0.02151026198041048</v>
+        <v>0.02376272533450901</v>
       </c>
       <c r="S40" t="n">
-        <v>0.02151026198041048</v>
+        <v>0.02376272533450901</v>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>0.03924035043361401</v>
+        <v>0.03909419724376789</v>
       </c>
       <c r="V40" t="n">
-        <v>0.02063722719348908</v>
+        <v>0.02290710898028436</v>
       </c>
       <c r="W40" t="n">
-        <v>0.02063722719348908</v>
+        <v>0.02290710898028436</v>
       </c>
       <c r="X40" t="n">
-        <v>0.02063722719348908</v>
+        <v>0.02290710898028436</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.02063722719348908</v>
+        <v>0.02290710898028436</v>
       </c>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
@@ -3778,10 +3778,10 @@
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="n">
-        <v>-0.001921575148863006</v>
+        <v>-0.001921187692847507</v>
       </c>
       <c r="AF40" t="n">
-        <v>-0.00104506525780261</v>
+        <v>-0.001527998941119958</v>
       </c>
     </row>
     <row r="41">
@@ -3796,11 +3796,11 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.01351621071664843</v>
+        <v>0.01352118188484727</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>-0.01387980381919215</v>
+        <v>-0.01388255633130225</v>
       </c>
       <c r="F41" t="n">
         <v>0.003975841791033671</v>
@@ -3813,48 +3813,48 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>-0.01329143966765758</v>
+        <v>-0.0132910025796401</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.01178931915957277</v>
+        <v>-0.01178895023155801</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>0.004688713051548521</v>
+        <v>0.00468839327553573</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.02598091310328691</v>
+        <v>-0.02236595113742111</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.006459316578372662</v>
+        <v>-0.005368869718754788</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.006459316578372662</v>
+        <v>-0.005368869718754788</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.006459316578372662</v>
+        <v>-0.005368869718754788</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.006459316578372662</v>
+        <v>-0.005368869718754788</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.006459316578372662</v>
+        <v>-0.005368869718754788</v>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>0.000833192577327703</v>
+        <v>0.001028228681129147</v>
       </c>
       <c r="V41" t="n">
-        <v>-0.006509821604392863</v>
+        <v>-0.005427872953114917</v>
       </c>
       <c r="W41" t="n">
-        <v>-0.006509821604392863</v>
+        <v>-0.005427872953114917</v>
       </c>
       <c r="X41" t="n">
-        <v>-0.006509821604392863</v>
+        <v>-0.005427872953114917</v>
       </c>
       <c r="Y41" t="n">
-        <v>-0.006509821604392863</v>
+        <v>-0.005427872953114917</v>
       </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
@@ -3862,10 +3862,10 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="n">
-        <v>0.00264884074595363</v>
+        <v>0.002650254058010162</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.005422950456918017</v>
+        <v>0.005343582357743294</v>
       </c>
     </row>
     <row r="42">
@@ -3880,11 +3880,11 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.01838412111936484</v>
+        <v>0.01838278729531149</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>-0.003240070113602804</v>
+        <v>-0.003203426432137057</v>
       </c>
       <c r="F42" t="n">
         <v>0.02546502639460105</v>
@@ -3897,48 +3897,48 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>-0.005538274493530979</v>
+        <v>-0.005538111869524473</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.01031301142052046</v>
+        <v>-0.01031413654056546</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>0.01995358409414336</v>
+        <v>0.01995194854207794</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.01796589929888917</v>
+        <v>-0.01682945036833238</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.01324239268969571</v>
+        <v>-0.01498499474339979</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.01324239268969571</v>
+        <v>-0.01498499474339979</v>
       </c>
       <c r="Q42" t="n">
-        <v>-0.01324239268969571</v>
+        <v>-0.01498499474339979</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.01324239268969571</v>
+        <v>-0.01498499474339979</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.01324239268969571</v>
+        <v>-0.01498499474339979</v>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>-0.01440841056033642</v>
+        <v>-0.014467600130704</v>
       </c>
       <c r="V42" t="n">
-        <v>-0.01287755984310239</v>
+        <v>-0.01475272292610891</v>
       </c>
       <c r="W42" t="n">
-        <v>-0.01287755984310239</v>
+        <v>-0.01475272292610891</v>
       </c>
       <c r="X42" t="n">
-        <v>-0.01287755984310239</v>
+        <v>-0.01475272292610891</v>
       </c>
       <c r="Y42" t="n">
-        <v>-0.01287755984310239</v>
+        <v>-0.01475272292610891</v>
       </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
@@ -3946,10 +3946,10 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="n">
-        <v>-0.003472907274916291</v>
+        <v>-0.00347257626690305</v>
       </c>
       <c r="AF42" t="n">
-        <v>-0.003597113327884532</v>
+        <v>-0.003771431094857243</v>
       </c>
     </row>
     <row r="43">
@@ -3964,11 +3964,11 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.007610229712409187</v>
+        <v>0.007617948112717923</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>0.0007896953595878143</v>
+        <v>0.0008029569921182796</v>
       </c>
       <c r="F43" t="n">
         <v>0.01382130016885201</v>
@@ -3981,48 +3981,48 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>-0.003865015066600602</v>
+        <v>-0.003862647706505908</v>
       </c>
       <c r="K43" t="n">
-        <v>0.008749934653997385</v>
+        <v>0.008747625853905034</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>0.003060679130427164</v>
+        <v>0.003061676186467047</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.01425160096110456</v>
+        <v>-0.01682480231812289</v>
       </c>
       <c r="O43" t="n">
-        <v>0.001144368621774745</v>
+        <v>0.002575740583029623</v>
       </c>
       <c r="P43" t="n">
-        <v>0.001144368621774745</v>
+        <v>0.002575740583029623</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.001144368621774745</v>
+        <v>0.002575740583029623</v>
       </c>
       <c r="R43" t="n">
-        <v>0.001144368621774745</v>
+        <v>0.002575740583029623</v>
       </c>
       <c r="S43" t="n">
-        <v>0.001144368621774745</v>
+        <v>0.002575740583029623</v>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>0.0150757049550282</v>
+        <v>0.01517727113509084</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0009211177328447093</v>
+        <v>0.002277520603100824</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0009211177328447093</v>
+        <v>0.002277520603100824</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0009211177328447093</v>
+        <v>0.002277520603100824</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0009211177328447093</v>
+        <v>0.002277520603100824</v>
       </c>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
@@ -4030,10 +4030,10 @@
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="n">
-        <v>0.001564976990599079</v>
+        <v>0.001563500414540016</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.0009100873324034933</v>
+        <v>0.001984176847367074</v>
       </c>
     </row>
     <row r="44">
@@ -4048,11 +4048,11 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.00674861527794461</v>
+        <v>0.006724350892974034</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>-0.0008992546919701875</v>
+        <v>-0.000876425603057024</v>
       </c>
       <c r="F44" t="n">
         <v>0.002387110943484438</v>
@@ -4065,48 +4065,48 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>0.005668903426756136</v>
+        <v>0.005665919650636785</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0002866249074649962</v>
+        <v>-0.0002863068594522744</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>-0.005171372078854882</v>
+        <v>-0.005172211214888448</v>
       </c>
       <c r="N44" t="n">
-        <v>0.01549598689529004</v>
+        <v>0.0118529759765802</v>
       </c>
       <c r="O44" t="n">
-        <v>0.3545016629480665</v>
+        <v>0.3536993381159735</v>
       </c>
       <c r="P44" t="n">
-        <v>0.3545016629480665</v>
+        <v>0.3536993381159735</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3545016629480665</v>
+        <v>0.3536993381159735</v>
       </c>
       <c r="R44" t="n">
-        <v>0.3545016629480665</v>
+        <v>0.3536993381159735</v>
       </c>
       <c r="S44" t="n">
-        <v>0.3545016629480665</v>
+        <v>0.3536993381159735</v>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>0.08019442544777701</v>
+        <v>0.08034305591772221</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3546446224097848</v>
+        <v>0.3541558812062353</v>
       </c>
       <c r="W44" t="n">
-        <v>0.3546446224097848</v>
+        <v>0.3541558812062353</v>
       </c>
       <c r="X44" t="n">
-        <v>0.3546446224097848</v>
+        <v>0.3541558812062353</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.3546446224097848</v>
+        <v>0.3541558812062353</v>
       </c>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
@@ -4114,10 +4114,10 @@
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="n">
-        <v>0.002762767022510681</v>
+        <v>0.002762669102506764</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.003647833489913339</v>
+        <v>0.003574670062986802</v>
       </c>
     </row>
     <row r="45">
@@ -4132,11 +4132,11 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.02424076196163047</v>
+        <v>0.02424030596161224</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>-0.02259799347991974</v>
+        <v>-0.02261176986447079</v>
       </c>
       <c r="F45" t="n">
         <v>0.03032399487695979</v>
@@ -4149,48 +4149,48 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-0.01741684687267387</v>
+        <v>-0.01741711864868474</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.01829399804375992</v>
+        <v>-0.0182933475477339</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>0.01432056038082241</v>
+        <v>0.01432094351683774</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.02251036516356337</v>
+        <v>-0.02270876947672194</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.01262767874510715</v>
+        <v>-0.01227088849083554</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.01262767874510715</v>
+        <v>-0.01227088849083554</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.01262767874510715</v>
+        <v>-0.01227088849083554</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.01262767874510715</v>
+        <v>-0.01227088849083554</v>
       </c>
       <c r="S45" t="n">
-        <v>-0.01262767874510715</v>
+        <v>-0.01227088849083554</v>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>-0.002179584951183397</v>
+        <v>-0.002089974899598996</v>
       </c>
       <c r="V45" t="n">
-        <v>-0.01257541144701645</v>
+        <v>-0.01219932384797295</v>
       </c>
       <c r="W45" t="n">
-        <v>-0.01257541144701645</v>
+        <v>-0.01219932384797295</v>
       </c>
       <c r="X45" t="n">
-        <v>-0.01257541144701645</v>
+        <v>-0.01219932384797295</v>
       </c>
       <c r="Y45" t="n">
-        <v>-0.01257541144701645</v>
+        <v>-0.01219932384797295</v>
       </c>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
@@ -4198,10 +4198,10 @@
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="n">
-        <v>0.02549042914761717</v>
+        <v>0.02549159189966367</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.02582118141684726</v>
+        <v>0.0252049276321971</v>
       </c>
     </row>
     <row r="46">
@@ -4216,11 +4216,11 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.01584262172170487</v>
+        <v>0.01589724073188963</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>-0.008038100481524018</v>
+        <v>-0.008062524994500999</v>
       </c>
       <c r="F46" t="n">
         <v>0.02622929874517195</v>
@@ -4233,48 +4233,48 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>-0.01102294200891768</v>
+        <v>-0.01102498700099948</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.01478104148724166</v>
+        <v>-0.01477968155118726</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>0.01376249642249986</v>
+        <v>0.01376234224649369</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.005001662491349995</v>
+        <v>-0.003782703674998201</v>
       </c>
       <c r="O46" t="n">
-        <v>0.03015028719001149</v>
+        <v>0.06254149315765972</v>
       </c>
       <c r="P46" t="n">
-        <v>0.03015028719001149</v>
+        <v>0.06254149315765972</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.03015028719001149</v>
+        <v>0.06254149315765972</v>
       </c>
       <c r="R46" t="n">
-        <v>0.03015028719001149</v>
+        <v>0.06254149315765972</v>
       </c>
       <c r="S46" t="n">
-        <v>0.03015028719001149</v>
+        <v>0.06254149315765972</v>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>0.01358836921553476</v>
+        <v>0.02182807690512308</v>
       </c>
       <c r="V46" t="n">
-        <v>0.03004711406588456</v>
+        <v>0.06242339097693562</v>
       </c>
       <c r="W46" t="n">
-        <v>0.03004711406588456</v>
+        <v>0.06242339097693562</v>
       </c>
       <c r="X46" t="n">
-        <v>0.03004711406588456</v>
+        <v>0.06242339097693562</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.03004711406588456</v>
+        <v>0.06242339097693562</v>
       </c>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
@@ -4282,10 +4282,10 @@
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="n">
-        <v>0.002532602693304107</v>
+        <v>0.002531306213252248</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.001828782409151296</v>
+        <v>0.002809538320381533</v>
       </c>
     </row>
     <row r="47">
@@ -4300,11 +4300,11 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.005306652308266092</v>
+        <v>0.005336231829449273</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>-0.0006074898482995939</v>
+        <v>-0.0006389645055585801</v>
       </c>
       <c r="F47" t="n">
         <v>-0.007106613404264535</v>
@@ -4317,48 +4317,48 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>-0.009325657429026296</v>
+        <v>-0.009331641301265651</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.008389733135589324</v>
+        <v>-0.008391875279675011</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>-0.01719526839981073</v>
+        <v>-0.0171939550237582</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0108854594311637</v>
+        <v>0.007237130049826472</v>
       </c>
       <c r="O47" t="n">
-        <v>0.005348622741944909</v>
+        <v>0.00519877076795083</v>
       </c>
       <c r="P47" t="n">
-        <v>0.005348622741944909</v>
+        <v>0.00519877076795083</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.005348622741944909</v>
+        <v>0.00519877076795083</v>
       </c>
       <c r="R47" t="n">
-        <v>0.005348622741944909</v>
+        <v>0.00519877076795083</v>
       </c>
       <c r="S47" t="n">
-        <v>0.005348622741944909</v>
+        <v>0.00519877076795083</v>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>-0.002293474459738978</v>
+        <v>-0.002183900535356021</v>
       </c>
       <c r="V47" t="n">
-        <v>0.005490880731635228</v>
+        <v>0.005259189906367596</v>
       </c>
       <c r="W47" t="n">
-        <v>0.005490880731635228</v>
+        <v>0.005259189906367596</v>
       </c>
       <c r="X47" t="n">
-        <v>0.005490880731635228</v>
+        <v>0.005259189906367596</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.005490880731635228</v>
+        <v>0.005259189906367596</v>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
@@ -4366,10 +4366,10 @@
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="n">
-        <v>-0.004643404889736195</v>
+        <v>-0.004643706905748276</v>
       </c>
       <c r="AF47" t="n">
-        <v>-0.003849133305965331</v>
+        <v>-0.004931042789241711</v>
       </c>
     </row>
     <row r="48">
@@ -4384,11 +4384,11 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.005000976200039048</v>
+        <v>0.00499923975196959</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>-0.006884749427389977</v>
+        <v>-0.006902205684088226</v>
       </c>
       <c r="F48" t="n">
         <v>-0.01176486603859464</v>
@@ -4401,48 +4401,48 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>0.001146947277877891</v>
+        <v>0.001149233613969344</v>
       </c>
       <c r="K48" t="n">
-        <v>0.008620633304825331</v>
+        <v>0.008623814168952566</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>-0.004888144035525761</v>
+        <v>-0.004886865987474638</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.02985328553230562</v>
+        <v>-0.03436161409051636</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.004576985751079429</v>
+        <v>-0.00307908377116335</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.004576985751079429</v>
+        <v>-0.00307908377116335</v>
       </c>
       <c r="Q48" t="n">
-        <v>-0.004576985751079429</v>
+        <v>-0.00307908377116335</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.004576985751079429</v>
+        <v>-0.00307908377116335</v>
       </c>
       <c r="S48" t="n">
-        <v>-0.004576985751079429</v>
+        <v>-0.00307908377116335</v>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>0.0156110650084426</v>
+        <v>0.01573824773352991</v>
       </c>
       <c r="V48" t="n">
-        <v>-0.004957286406291456</v>
+        <v>-0.003385242375409695</v>
       </c>
       <c r="W48" t="n">
-        <v>-0.004957286406291456</v>
+        <v>-0.003385242375409695</v>
       </c>
       <c r="X48" t="n">
-        <v>-0.004957286406291456</v>
+        <v>-0.003385242375409695</v>
       </c>
       <c r="Y48" t="n">
-        <v>-0.004957286406291456</v>
+        <v>-0.003385242375409695</v>
       </c>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
@@ -4450,10 +4450,10 @@
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="n">
-        <v>-0.004983156199326248</v>
+        <v>-0.004983203239328129</v>
       </c>
       <c r="AF48" t="n">
-        <v>-0.005772903494916139</v>
+        <v>-0.006488784643551384</v>
       </c>
     </row>
     <row r="49">
@@ -4468,11 +4468,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.001594938687797547</v>
+        <v>-0.001626339521053581</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>-0.006143199893727995</v>
+        <v>-0.00613272677330907</v>
       </c>
       <c r="F49" t="n">
         <v>-0.001005713896228556</v>
@@ -4485,48 +4485,48 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>-0.001543190653727626</v>
+        <v>-0.001545507229820289</v>
       </c>
       <c r="K49" t="n">
-        <v>0.006986001975440078</v>
+        <v>0.006985412919416516</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>-0.005262744978509798</v>
+        <v>-0.005261318034452721</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.008324546389988233</v>
+        <v>-0.008426888581428591</v>
       </c>
       <c r="O49" t="n">
-        <v>0.002421900000876</v>
+        <v>0.004294348203773927</v>
       </c>
       <c r="P49" t="n">
-        <v>0.002421900000876</v>
+        <v>0.004294348203773927</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.002421900000876</v>
+        <v>0.004294348203773927</v>
       </c>
       <c r="R49" t="n">
-        <v>0.002421900000876</v>
+        <v>0.004294348203773927</v>
       </c>
       <c r="S49" t="n">
-        <v>0.002421900000876</v>
+        <v>0.004294348203773927</v>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>0.01040962332838493</v>
+        <v>0.01066003943440158</v>
       </c>
       <c r="V49" t="n">
-        <v>0.002228025593121024</v>
+        <v>0.004112795396511815</v>
       </c>
       <c r="W49" t="n">
-        <v>0.002228025593121024</v>
+        <v>0.004112795396511815</v>
       </c>
       <c r="X49" t="n">
-        <v>0.002228025593121024</v>
+        <v>0.004112795396511815</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.002228025593121024</v>
+        <v>0.004112795396511815</v>
       </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
@@ -4534,10 +4534,10 @@
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="n">
-        <v>-0.009590941439637658</v>
+        <v>-0.009590542655621705</v>
       </c>
       <c r="AF49" t="n">
-        <v>-0.01168765313950612</v>
+        <v>-0.01202015875280635</v>
       </c>
     </row>
     <row r="50">
@@ -4552,11 +4552,11 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.00545105100256534</v>
+        <v>-0.005430635449746759</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>-0.003099418204274272</v>
+        <v>-0.003108302620630502</v>
       </c>
       <c r="F50" t="n">
         <v>-0.01675201430368876</v>
@@ -4569,48 +4569,48 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>0.0007657746547045006</v>
+        <v>0.0007607199665018278</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01006591662760299</v>
+        <v>0.0100669293316436</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>-0.00640722640090415</v>
+        <v>-0.006406414144871581</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.00855692336519698</v>
+        <v>-0.009447641410523623</v>
       </c>
       <c r="O50" t="n">
-        <v>0.006773421679587116</v>
+        <v>0.00809833674071091</v>
       </c>
       <c r="P50" t="n">
-        <v>0.006773421679587116</v>
+        <v>0.00809833674071091</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.006773421679587116</v>
+        <v>0.00809833674071091</v>
       </c>
       <c r="R50" t="n">
-        <v>0.006773421679587116</v>
+        <v>0.00809833674071091</v>
       </c>
       <c r="S50" t="n">
-        <v>0.006773421679587116</v>
+        <v>0.00809833674071091</v>
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>0.01248738818069432</v>
+        <v>0.01265843522755262</v>
       </c>
       <c r="V50" t="n">
-        <v>0.006512773701136175</v>
+        <v>0.007761663959211678</v>
       </c>
       <c r="W50" t="n">
-        <v>0.006512773701136175</v>
+        <v>0.007761663959211678</v>
       </c>
       <c r="X50" t="n">
-        <v>0.006512773701136175</v>
+        <v>0.007761663959211678</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.006512773701136175</v>
+        <v>0.007761663959211678</v>
       </c>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
@@ -4618,10 +4618,10 @@
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="n">
-        <v>-0.009374408247876272</v>
+        <v>-0.009373547319841753</v>
       </c>
       <c r="AF50" t="n">
-        <v>-0.007287667492206315</v>
+        <v>-0.006540467398246581</v>
       </c>
     </row>
     <row r="51">
@@ -4632,11 +4632,11 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.08772514546942742</v>
+        <v>0.0879476129023475</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>0.1194528186135802</v>
+        <v>0.1194362669649166</v>
       </c>
       <c r="F51" t="n">
         <v>0.2640731636442776</v>
@@ -4649,48 +4649,48 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>-0.9114115107519558</v>
+        <v>-0.9114095852798788</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.9250163912974571</v>
+        <v>-0.9250153097614138</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>-0.004089192259960252</v>
+        <v>-0.004089206947960842</v>
       </c>
       <c r="N51" t="n">
-        <v>0.04646442336788548</v>
+        <v>0.04750520557592367</v>
       </c>
       <c r="O51" t="n">
-        <v>0.3604936056543516</v>
+        <v>0.3623185531515247</v>
       </c>
       <c r="P51" t="n">
-        <v>0.3604936056543516</v>
+        <v>0.3623185531515247</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.3604936056543516</v>
+        <v>0.3623185531515247</v>
       </c>
       <c r="R51" t="n">
-        <v>0.3604936056543516</v>
+        <v>0.3623185531515247</v>
       </c>
       <c r="S51" t="n">
-        <v>0.3604936056543516</v>
+        <v>0.3623185531515247</v>
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>0.1298585258148074</v>
+        <v>0.1298018568205352</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3595655896491419</v>
+        <v>0.3616580175410398</v>
       </c>
       <c r="W51" t="n">
-        <v>0.3595655896491419</v>
+        <v>0.3616580175410398</v>
       </c>
       <c r="X51" t="n">
-        <v>0.3595655896491419</v>
+        <v>0.3616580175410398</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.3595655896491419</v>
+        <v>0.3616580175410398</v>
       </c>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
@@ -4698,10 +4698,10 @@
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="n">
-        <v>-0.2085283770331538</v>
+        <v>-0.2085286089691631</v>
       </c>
       <c r="AF51" t="n">
-        <v>-0.2086922718877254</v>
+        <v>-0.2072215531727554</v>
       </c>
     </row>
     <row r="52">
@@ -4712,11 +4712,11 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.001406670872401875</v>
+        <v>0.001400840312168093</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>-0.01008045851618606</v>
+        <v>-0.01009773179687865</v>
       </c>
       <c r="F52" t="n">
         <v>-0.0183507382717912</v>
@@ -4729,48 +4729,48 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>-0.006909292309034984</v>
+        <v>-0.006909803989055502</v>
       </c>
       <c r="K52" t="n">
-        <v>0.000714500572648615</v>
+        <v>0.0007123764765634471</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>-0.01488147861268777</v>
+        <v>-0.01488110094867262</v>
       </c>
       <c r="N52" t="n">
-        <v>0.008464160670873872</v>
+        <v>0.008407284334981563</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0199017184619793</v>
+        <v>0.02126135835649542</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0199017184619793</v>
+        <v>0.02126135835649542</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.0199017184619793</v>
+        <v>0.02126135835649542</v>
       </c>
       <c r="R52" t="n">
-        <v>0.0199017184619793</v>
+        <v>0.02126135835649542</v>
       </c>
       <c r="S52" t="n">
-        <v>0.0199017184619793</v>
+        <v>0.02126135835649542</v>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>0.02260149949822973</v>
+        <v>0.0227291874713495</v>
       </c>
       <c r="V52" t="n">
-        <v>0.01967367189283555</v>
+        <v>0.02100581681024923</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01967367189283555</v>
+        <v>0.02100581681024923</v>
       </c>
       <c r="X52" t="n">
-        <v>0.01967367189283555</v>
+        <v>0.02100581681024923</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.01967367189283555</v>
+        <v>0.02100581681024923</v>
       </c>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
@@ -4778,10 +4778,10 @@
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="n">
-        <v>0.008117217541467955</v>
+        <v>0.008116398085435097</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.005345785174344603</v>
+        <v>0.005746620518416496</v>
       </c>
     </row>
   </sheetData>
